--- a/web-service/site/ui/translations/STEP-i18n.xlsx
+++ b/web-service/site/ui/translations/STEP-i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="landing_page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1033">
   <si>
     <t>ID</t>
   </si>
@@ -237,18 +237,12 @@
     <t>section2_input_users_keyword</t>
   </si>
   <si>
-    <t>Place a keyword</t>
-  </si>
-  <si>
     <t>Δώσε μια λέξη-κλειδί</t>
   </si>
   <si>
     <t>section2_input_tags</t>
   </si>
   <si>
-    <t>Place your Tags</t>
-  </si>
-  <si>
     <t>Δώσε τις ετικέτες</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>section2_input_Twitter</t>
   </si>
   <si>
-    <t>Place your Users from Twitter</t>
-  </si>
-  <si>
     <t>Δώσε τους χρήστες από Twitter</t>
   </si>
   <si>
@@ -336,9 +327,6 @@
     <t>section2_input_GooglePlus</t>
   </si>
   <si>
-    <t>Place your Users from GooglePlus</t>
-  </si>
-  <si>
     <t>Δώσε τους χρήστες από GooglePlus</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t>section2_input_Facebook</t>
   </si>
   <si>
-    <t>Place your Users from Facebook</t>
-  </si>
-  <si>
     <t>Δώσε τους χρήστες από Facebook</t>
   </si>
   <si>
@@ -378,9 +363,6 @@
     <t>section2_input_RSS</t>
   </si>
   <si>
-    <t>Place your RSS</t>
-  </si>
-  <si>
     <t>Δώσε τα RSS</t>
   </si>
   <si>
@@ -3043,6 +3025,96 @@
   </si>
   <si>
     <t>relevance_saved</t>
+  </si>
+  <si>
+    <t>Type a keyword</t>
+  </si>
+  <si>
+    <t>Type your Tags</t>
+  </si>
+  <si>
+    <t>Type your Users from Twitter</t>
+  </si>
+  <si>
+    <t>Type your Users from GooglePlus</t>
+  </si>
+  <si>
+    <t>Type your Users from Facebook</t>
+  </si>
+  <si>
+    <t>Type your RSS</t>
+  </si>
+  <si>
+    <t>section2_input_locations</t>
+  </si>
+  <si>
+    <t>Type your Locations</t>
+  </si>
+  <si>
+    <t>Δώσε τις τοποθεσίες</t>
+  </si>
+  <si>
+    <t>section2_polygons</t>
+  </si>
+  <si>
+    <t>Polygon(s) created</t>
+  </si>
+  <si>
+    <t>Πολύγωνα δημιουργήθηκαν</t>
+  </si>
+  <si>
+    <t>section2_max_locations</t>
+  </si>
+  <si>
+    <t>Max number (5) of locations reached.</t>
+  </si>
+  <si>
+    <t>Ο μέγιστος αριθμός (5) τοποθεσιών επιτεύχθει.</t>
+  </si>
+  <si>
+    <t>We couldn't geocode this location.</t>
+  </si>
+  <si>
+    <t>Δεν ήταν δυνατή η γεωκωδικοποίηση αυτής της τοποθεσίας.</t>
+  </si>
+  <si>
+    <t>section2_error_geocode</t>
+  </si>
+  <si>
+    <t>section2_map</t>
+  </si>
+  <si>
+    <t>Open Map</t>
+  </si>
+  <si>
+    <t>Άνοιγμα χάρτη</t>
+  </si>
+  <si>
+    <t>section2_map_desc_1</t>
+  </si>
+  <si>
+    <t>section2_map_desc_2</t>
+  </si>
+  <si>
+    <t>Create polygons by clicking</t>
+  </si>
+  <si>
+    <t>, and selecting points on the map. Note that the first and last point must define the same location, which completes the loop. Erase polygons by clicking</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε πολύγωνα κλικάροντας το</t>
+  </si>
+  <si>
+    <t>, και επιλέγοντας σημεία στο χάρτη. Σημειώστε οτι το πρώτο και το τελευταίο σημείο πρέπει να είναι η ίδια τοποθεσία, ολοκληρώνοντας τον κύκλο. Διαγράψτε πολύγωνα κλικάροντας το</t>
+  </si>
+  <si>
+    <t>section2_map_desc_3</t>
+  </si>
+  <si>
+    <t>. Editable polygons are shown with red color. Defined polygons are shown with blue color. Select them to change state.</t>
+  </si>
+  <si>
+    <t>. Τα επεξεργάσιμα πολύγωνα εμφανίζονται με κόκκινο χρώμα. Τα καθορισμένα πολύγωνα εμφανίζονται με μπλε χρώμα. Επιλέξτε τα για να αλλάξετε την κατάσταση.</t>
   </si>
 </sst>
 </file>
@@ -3438,17 +3510,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="170.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.85546875" bestFit="1" customWidth="1"/>
@@ -3736,10 +3807,10 @@
         <v>72</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>58</v>
@@ -3756,82 +3827,82 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>1012</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>1013</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>58</v>
@@ -3848,220 +3919,220 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="G22" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>120</v>
+        <v>1006</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>127</v>
+        <v>1007</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>58</v>
+        <v>109</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>1007</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>133</v>
+        <v>1008</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>115</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>58</v>
@@ -4078,13 +4149,13 @@
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>58</v>
@@ -4101,13 +4172,13 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>58</v>
@@ -4124,13 +4195,13 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -4147,13 +4218,13 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>58</v>
@@ -4170,13 +4241,13 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>875</v>
+        <v>135</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>877</v>
+        <v>136</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>878</v>
+        <v>137</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>58</v>
@@ -4193,13 +4264,13 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>883</v>
+        <v>138</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>884</v>
+        <v>139</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>885</v>
+        <v>140</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>58</v>
@@ -4216,13 +4287,13 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>880</v>
+        <v>141</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>881</v>
+        <v>142</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>882</v>
+        <v>143</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>58</v>
@@ -4239,220 +4310,220 @@
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>869</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>166</v>
+        <v>870</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>171</v>
+        <v>873</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>58</v>
@@ -4469,13 +4540,13 @@
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>58</v>
@@ -4492,13 +4563,13 @@
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>58</v>
@@ -4515,13 +4586,13 @@
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>58</v>
@@ -4536,199 +4607,199 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>886</v>
+        <v>195</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>887</v>
+        <v>197</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>227</v>
+        <v>199</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>235</v>
+        <v>880</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>242</v>
+        <v>881</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>249</v>
+        <v>1021</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>250</v>
+        <v>1022</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>256</v>
+        <v>1020</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>257</v>
+        <v>1018</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>263</v>
+        <v>1024</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>264</v>
+        <v>1026</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>265</v>
+        <v>1028</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>58</v>
@@ -4743,15 +4814,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>266</v>
+        <v>1025</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>267</v>
+        <v>1027</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>268</v>
+        <v>1029</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>58</v>
@@ -4766,15 +4837,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>269</v>
+        <v>1030</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>270</v>
+        <v>1031</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>271</v>
+        <v>1032</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>58</v>
@@ -4791,128 +4862,128 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>58</v>
+        <v>224</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>58</v>
+        <v>231</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>58</v>
+        <v>238</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>58</v>
+        <v>245</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>58</v>
+        <v>252</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>58</v>
@@ -4927,15 +4998,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>58</v>
@@ -4952,13 +5023,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>58</v>
@@ -4975,93 +5046,277 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>906</v>
+      </c>
+      <c r="B76" t="s">
+        <v>908</v>
+      </c>
+      <c r="C76" t="s">
+        <v>911</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>905</v>
+      </c>
+      <c r="B77" t="s">
+        <v>588</v>
+      </c>
+      <c r="C77" t="s">
+        <v>912</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>904</v>
+      </c>
+      <c r="B78" t="s">
         <v>909</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C78" t="s">
         <v>913</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>912</v>
-      </c>
-      <c r="B68" t="s">
-        <v>914</v>
-      </c>
-      <c r="C68" t="s">
-        <v>917</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>911</v>
-      </c>
-      <c r="B69" t="s">
-        <v>594</v>
-      </c>
-      <c r="C69" t="s">
-        <v>918</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>910</v>
-      </c>
-      <c r="B70" t="s">
-        <v>915</v>
-      </c>
-      <c r="C70" t="s">
-        <v>919</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="D78" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5075,7 +5330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -5095,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -5110,202 +5365,202 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>58</v>
@@ -5322,59 +5577,59 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>58</v>
@@ -5391,13 +5646,13 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>58</v>
@@ -5414,174 +5669,174 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>58</v>
@@ -5598,13 +5853,13 @@
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>58</v>
@@ -5621,13 +5876,13 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>58</v>
@@ -5644,13 +5899,13 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>58</v>
@@ -5667,13 +5922,13 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>58</v>
@@ -5690,13 +5945,13 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>58</v>
@@ -5713,82 +5968,82 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>58</v>
@@ -5805,220 +6060,220 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>58</v>
@@ -6035,13 +6290,13 @@
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>58</v>
@@ -6058,13 +6313,13 @@
     </row>
     <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>58</v>
@@ -6081,13 +6336,13 @@
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>58</v>
@@ -6104,13 +6359,13 @@
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>58</v>
@@ -6127,13 +6382,13 @@
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>58</v>
@@ -6150,13 +6405,13 @@
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>58</v>
@@ -6173,13 +6428,13 @@
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>58</v>
@@ -6196,13 +6451,13 @@
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>58</v>
@@ -6219,13 +6474,13 @@
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>58</v>
@@ -6242,13 +6497,13 @@
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>58</v>
@@ -6265,59 +6520,59 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>58</v>
@@ -6334,13 +6589,13 @@
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>58</v>
@@ -6357,13 +6612,13 @@
     </row>
     <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>58</v>
@@ -6380,13 +6635,13 @@
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>58</v>
@@ -6403,13 +6658,13 @@
     </row>
     <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>58</v>
@@ -6426,13 +6681,13 @@
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>58</v>
@@ -6449,13 +6704,13 @@
     </row>
     <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>58</v>
@@ -6472,13 +6727,13 @@
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>58</v>
@@ -6495,13 +6750,13 @@
     </row>
     <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>58</v>
@@ -6518,13 +6773,13 @@
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>58</v>
@@ -6541,13 +6796,13 @@
     </row>
     <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>58</v>
@@ -6564,13 +6819,13 @@
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>58</v>
@@ -6587,13 +6842,13 @@
     </row>
     <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>58</v>
@@ -6610,13 +6865,13 @@
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>58</v>
@@ -6633,13 +6888,13 @@
     </row>
     <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>58</v>
@@ -6656,13 +6911,13 @@
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>58</v>
@@ -6679,13 +6934,13 @@
     </row>
     <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>58</v>
@@ -6702,289 +6957,289 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>514</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>521</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>528</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>572</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>58</v>
@@ -7001,117 +7256,117 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -7159,616 +7414,616 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>642</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>680</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>701</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>708</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>715</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>774</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>781</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>58</v>
@@ -7785,13 +8040,13 @@
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>58</v>
@@ -7808,13 +8063,13 @@
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>58</v>
@@ -7831,13 +8086,13 @@
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>58</v>
@@ -7854,13 +8109,13 @@
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>58</v>
@@ -7877,13 +8132,13 @@
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>58</v>
@@ -7900,301 +8155,301 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>861</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>863</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">

--- a/web-service/site/ui/translations/STEP-i18n.xlsx
+++ b/web-service/site/ui/translations/STEP-i18n.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="landing_page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1039">
   <si>
     <t>ID</t>
   </si>
@@ -3115,6 +3115,24 @@
   </si>
   <si>
     <t>. Τα επεξεργάσιμα πολύγωνα εμφανίζονται με κόκκινο χρώμα. Τα καθορισμένα πολύγωνα εμφανίζονται με μπλε χρώμα. Επιλέξτε τα για να αλλάξετε την κατάσταση.</t>
+  </si>
+  <si>
+    <t>translation_title_1</t>
+  </si>
+  <si>
+    <t>translation_title_2</t>
+  </si>
+  <si>
+    <t>See translation</t>
+  </si>
+  <si>
+    <t>Δείτε τη μετάφραση</t>
+  </si>
+  <si>
+    <t>Show in original</t>
+  </si>
+  <si>
+    <t>Δείτε το πρωτότυπο</t>
   </si>
 </sst>
 </file>
@@ -3512,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+    <sheetView topLeftCell="E22" workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -5328,10 +5346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7367,6 +7385,52 @@
       </c>
       <c r="G88" s="3" t="s">
         <v>621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/web-service/site/ui/translations/STEP-i18n.xlsx
+++ b/web-service/site/ui/translations/STEP-i18n.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="1045">
   <si>
     <t>ID</t>
   </si>
@@ -3133,6 +3133,24 @@
   </si>
   <si>
     <t>Δείτε το πρωτότυπο</t>
+  </si>
+  <si>
+    <t>slider_settings_concepts</t>
+  </si>
+  <si>
+    <t>CONCEPTS</t>
+  </si>
+  <si>
+    <t>ΕΝΟΤΗΤΕΣ</t>
+  </si>
+  <si>
+    <t>Filter content based on concept</t>
+  </si>
+  <si>
+    <t>Φιλτράρισε το περιοχόμενο αναλόγως την ενότητα.</t>
+  </si>
+  <si>
+    <t>tour_description_14</t>
   </si>
 </sst>
 </file>
@@ -5346,10 +5364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,406 +5496,406 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>318</v>
+        <v>1039</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>319</v>
+        <v>1040</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>324</v>
+        <v>1041</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>353</v>
+      <c r="D11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>368</v>
+      <c r="D15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>897</v>
+        <v>392</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>58</v>
@@ -5894,13 +5912,13 @@
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>58</v>
@@ -5917,13 +5935,13 @@
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>58</v>
@@ -5940,13 +5958,13 @@
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>58</v>
@@ -5963,358 +5981,358 @@
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>414</v>
+      <c r="D28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>898</v>
+        <v>423</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>58</v>
+        <v>424</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>207</v>
+        <v>429</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>430</v>
+        <v>898</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>435</v>
+        <v>899</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>448</v>
+        <v>215</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>58</v>
@@ -6331,13 +6349,13 @@
     </row>
     <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>58</v>
@@ -6354,13 +6372,13 @@
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>58</v>
@@ -6377,13 +6395,13 @@
     </row>
     <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>58</v>
@@ -6400,13 +6418,13 @@
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>58</v>
@@ -6423,13 +6441,13 @@
     </row>
     <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>58</v>
@@ -6446,13 +6464,13 @@
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>58</v>
@@ -6469,13 +6487,13 @@
     </row>
     <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>58</v>
@@ -6492,13 +6510,13 @@
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>58</v>
@@ -6515,105 +6533,105 @@
     </row>
     <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>494</v>
+      <c r="D52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F54" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>949</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>58</v>
@@ -6630,13 +6648,13 @@
     </row>
     <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>58</v>
@@ -6653,13 +6671,13 @@
     </row>
     <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>58</v>
@@ -6676,13 +6694,13 @@
     </row>
     <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>58</v>
@@ -6699,13 +6717,13 @@
     </row>
     <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>58</v>
@@ -6722,13 +6740,13 @@
     </row>
     <row r="60" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>58</v>
@@ -6745,13 +6763,13 @@
     </row>
     <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>58</v>
@@ -6768,13 +6786,13 @@
     </row>
     <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>58</v>
@@ -6791,13 +6809,13 @@
     </row>
     <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>58</v>
@@ -6814,13 +6832,13 @@
     </row>
     <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>997</v>
+        <v>971</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>998</v>
+        <v>970</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>58</v>
@@ -6837,13 +6855,13 @@
     </row>
     <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>973</v>
+        <v>998</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>58</v>
@@ -6860,10 +6878,10 @@
     </row>
     <row r="66" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>983</v>
+        <v>999</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>973</v>
@@ -6883,13 +6901,13 @@
     </row>
     <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>58</v>
@@ -6906,13 +6924,13 @@
     </row>
     <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>58</v>
@@ -6929,13 +6947,13 @@
     </row>
     <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>58</v>
@@ -6952,484 +6970,530 @@
     </row>
     <row r="70" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>962</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>507</v>
+      <c r="D71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>527</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>542</v>
-      </c>
       <c r="B77" s="3" t="s">
-        <v>543</v>
+        <v>1042</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>548</v>
+        <v>1043</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>584</v>
-      </c>
       <c r="B83" s="3" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>58</v>
+        <v>572</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>594</v>
+        <v>1044</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>600</v>
+        <v>586</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>1033</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>1035</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>1036</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="D91" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>1034</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>1037</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>1038</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G90" s="7" t="s">
+      <c r="D92" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>58</v>
       </c>
     </row>
